--- a/Mifos Automation Excels/Client/2689-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-RunPERON1stFEB-DELETEAccCL-REPAYon1stFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2689-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-RunPERON1stFEB-DELETEAccCL-REPAYon1stFEB-Newcreateloan1.xlsx
@@ -159,9 +159,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -195,20 +192,23 @@
     <t>Accounting has been closed for this branch as of `2014-02-01`.</t>
   </si>
   <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
-  </si>
-  <si>
     <t>Navigate</t>
   </si>
   <si>
     <t>LoanAccount</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Accrual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +228,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,27 +263,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -311,7 +304,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -320,6 +312,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,10 +832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,14 +858,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -915,10 +902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,50 +917,52 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>6896</v>
+        <v>569</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>41671</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="14">
         <v>887.72</v>
@@ -990,43 +979,79 @@
       <c r="I2" s="14">
         <v>0</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>4163.24</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>6894</v>
+        <v>564</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
+        <v>41671</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="14">
+        <v>50.96</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>50.96</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>563</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
         <v>41640</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="13">
         <v>5000</v>
       </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>5000</v>
       </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,7 +1105,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,10 +1140,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1184,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1211,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
